--- a/TRADES_RNN.xlsx
+++ b/TRADES_RNN.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -53,18 +56,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +496,1225 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="B2" t="n">
+        <v>43.13063430786133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41.49066925048828</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.3306</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40.34</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.160069250488284</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.760669250488284</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.639965057373047</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43.13156509399414</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41.45917510986328</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38.49</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40.085</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.009175109863278</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.909175109863284</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.672389984130859</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44202</v>
+      </c>
+      <c r="B4" t="n">
+        <v>41.96001052856445</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40.17108154296875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.54</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6310815429687509</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2089184570312526</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.788928985595703</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B5" t="n">
+        <v>41.97257614135742</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40.24996185302734</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40.945</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0399618530273429</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.01996185302734688</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.722614288330078</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42.49660110473633</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40.85060882568359</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.765</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40.6911</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.085608825683593</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.8306088256835906</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.645992279052734</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42.86172866821289</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41.32410430908203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F7" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.424104309082033</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.914104309082035</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.537624359130859</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42.70047760009766</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.19181060791016</v>
+      </c>
+      <c r="D8" t="n">
+        <v>39.16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39.69</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.03181060791016</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.8918106079101591</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.5086669921875</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44209</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42.12540435791016</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40.57293319702148</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.6299</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="G9" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9430331970214851</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.1229331970214815</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.552471160888672</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B10" t="n">
+        <v>42.83412933349609</v>
+      </c>
+      <c r="C10" t="n">
+        <v>41.26879501342773</v>
+      </c>
+      <c r="D10" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="G10" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.308795013427734</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.288795013427738</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.565334320068359</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44215</v>
+      </c>
+      <c r="B11" t="n">
+        <v>43.51706695556641</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.88089752197266</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.8007</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40.31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>40.31</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.080197521972657</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1.570897521972654</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.63616943359375</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42.80306243896484</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41.09070587158203</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5907058715820312</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5292941284179662</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.712356567382812</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B13" t="n">
+        <v>42.73406600952148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41.08269500732422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="G13" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.912695007324217</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.412695007324217</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.651371002197266</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B14" t="n">
+        <v>43.35766220092773</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41.81162643432617</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40.27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.00162643432617</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1.811626434326172</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.546035766601562</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B15" t="n">
+        <v>42.99305725097656</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41.41619110107422</v>
+      </c>
+      <c r="D15" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="G15" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.996191101074217</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.51619110107422</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.576866149902344</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44222</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42.60830307006836</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40.97686767578125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="E16" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.996867675781253</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1.65686767578125</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.631435394287109</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41.68045043945312</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39.93918228149414</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.1609</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="F17" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>39.2254</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.778282281494143</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1.419182281494137</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.741268157958984</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B18" t="n">
+        <v>41.69246292114258</v>
+      </c>
+      <c r="C18" t="n">
+        <v>39.93791198730469</v>
+      </c>
+      <c r="D18" t="n">
+        <v>38.99</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40.08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9479119873046855</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1420880126953108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.754550933837891</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41.30023193359375</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39.37453842163086</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37.96</v>
+      </c>
+      <c r="F19" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="G19" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.634538421630857</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1.414538421630859</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.925693511962891</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41.84060668945312</v>
+      </c>
+      <c r="C20" t="n">
+        <v>39.91334533691406</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37.415</v>
+      </c>
+      <c r="E20" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="F20" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="G20" t="n">
+        <v>38.4448</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.498345336914063</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2.093345336914062</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.927261352539062</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="B21" t="n">
+        <v>40.87139129638672</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38.77997589111328</v>
+      </c>
+      <c r="D21" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="E21" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="G21" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7899758911132793</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02002410888671591</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.091415405273438</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44237</v>
+      </c>
+      <c r="B22" t="n">
+        <v>44.58671569824219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>42.81325149536133</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="G22" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6532514953613315</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.08674850463867045</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.773464202880859</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B23" t="n">
+        <v>44.54263305664062</v>
+      </c>
+      <c r="C23" t="n">
+        <v>42.88914108276367</v>
+      </c>
+      <c r="D23" t="n">
+        <v>41.995</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="F23" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>43.135</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8941410827636744</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.169141082763673</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.653491973876953</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="B24" t="n">
+        <v>44.69036102294922</v>
+      </c>
+      <c r="C24" t="n">
+        <v>43.20353698730469</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.41</v>
+      </c>
+      <c r="E24" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="F24" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7935369873046909</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.08646301269531165</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.486824035644531</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="B25" t="n">
+        <v>44.88923645019531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>43.60459136962891</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43.535</v>
+      </c>
+      <c r="E25" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="F25" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.06959136962890966</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7854086303710943</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.284645080566406</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B26" t="n">
+        <v>45.71001052856445</v>
+      </c>
+      <c r="C26" t="n">
+        <v>44.53318405151367</v>
+      </c>
+      <c r="D26" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="E26" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="F26" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>44.545</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.163184051513674</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.1531840515136693</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.176826477050781</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B27" t="n">
+        <v>45.6575927734375</v>
+      </c>
+      <c r="C27" t="n">
+        <v>44.58150482177734</v>
+      </c>
+      <c r="D27" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="E27" t="n">
+        <v>45.67</v>
+      </c>
+      <c r="F27" t="n">
+        <v>44.62</v>
+      </c>
+      <c r="G27" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03150482177734659</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.088495178222658</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.076087951660156</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B28" t="n">
+        <v>47.02478790283203</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46.18212127685547</v>
+      </c>
+      <c r="D28" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="E28" t="n">
+        <v>46.96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8621212768554685</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7778787231445321</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8426666259765625</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44260</v>
+      </c>
+      <c r="B29" t="n">
+        <v>47.24843978881836</v>
+      </c>
+      <c r="C29" t="n">
+        <v>46.35005950927734</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="E29" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="F29" t="n">
+        <v>46.91</v>
+      </c>
+      <c r="G29" t="n">
+        <v>47</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.340059509277346</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.1400595092773429</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8983802795410156</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48.01398468017578</v>
+      </c>
+      <c r="C30" t="n">
+        <v>45.97116470336914</v>
+      </c>
+      <c r="D30" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="E30" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="F30" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="G30" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5211647033691378</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.3311647033691401</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.042819976806641</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>